--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/20/seed5/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.028299999999993</v>
+        <v>-7.009099999999997</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.016699999999997</v>
+        <v>-6.795599999999996</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.4476</v>
+        <v>-13.39029999999999</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.9384</v>
+        <v>-11.01849999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.298600000000004</v>
+        <v>-7.251000000000005</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.1857</v>
+        <v>-13.3561</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.1402</v>
+        <v>-8.171999999999999</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.22340000000001</v>
+        <v>-13.3218</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.39709999999999</v>
+        <v>-13.3852</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -961,10 +961,10 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.87039999999999</v>
+        <v>-13.7482</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.876400000000006</v>
+        <v>-8.847400000000006</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.80050000000001</v>
+        <v>-13.86910000000001</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.513699999999993</v>
+        <v>-8.583099999999991</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.11560000000001</v>
+        <v>-13.11650000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.6144</v>
+        <v>-7.636799999999999</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.6934</v>
+        <v>-12.8472</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.748800000000004</v>
+        <v>-7.996099999999999</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.033799999999996</v>
+        <v>-8.026599999999991</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.711499999999998</v>
+        <v>-7.551699999999999</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.61439999999999</v>
+        <v>-14.68139999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.760799999999998</v>
+        <v>-7.508299999999996</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.15330000000001</v>
+        <v>-13.11630000000001</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.78420000000001</v>
+        <v>-13.75310000000001</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.03659999999999</v>
+        <v>-13.38069999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.413599999999999</v>
+        <v>-8.414700000000003</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.75150000000001</v>
+        <v>-10.74370000000001</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.7318</v>
+        <v>-11.6405</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.3201</v>
+        <v>-11.72930000000001</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.6412</v>
+        <v>-12.38260000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-6.960799999999991</v>
+        <v>-6.897299999999994</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1845,10 +1845,10 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.84560000000001</v>
+        <v>-14.00820000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.719699999999996</v>
+        <v>-8.861099999999997</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1896,7 +1896,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.8719</v>
+        <v>-13.99049999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.3183</v>
+        <v>-10.3557</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.88300000000001</v>
+        <v>-10.9433</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.9264</v>
+        <v>-13.2845</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.069400000000005</v>
+        <v>-8.079000000000004</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.7746</v>
+        <v>-7.638</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
